--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_169.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_169.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07793522267206478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1785714285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'F']]</t>
+          <t>[['A:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'D:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.921537, 5.694779)]</t>
+          <t>[['A', 'D', 'G'], ['A', 'D', 'D/5'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(40.03, 43.842)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:09.967000', '0:00:16.743000'), ('0:00:45.298000', '0:01:03.135000'), ('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:09.431879'), ('0:00:13.657911', '0:00:17.965212'), ('0:00:01.014823', '0:00:12.241493')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1457840819542947</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3017241379310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D']]</t>
+          <t>[['B:min', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(43.934, 50.158)]</t>
+          <t>[['G#:min/B', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(51.315598, 61.516031)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:28.508866', '0:00:32.421428')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:52.200000', '0:00:59.780000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0911978221415608</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['G', 'E:min', 'C'], ['G', 'D', 'E:min/b3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
+          <t>[['Ab/7', 'F:min', 'Db:maj'], ['Ab:maj', 'Eb/3', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
+          <t>[('0:00:59.012938', '0:01:04.527450'), ('0:00:15.006624', '0:00:17.758189')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:57.388000', '0:01:02.385000'), ('0:00:20.996000', '0:00:24.398000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(4.605, 13.84)]</t>
+          <t>[['C', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:21.148231', '0:00:28.899196')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:34.755034', '0:00:40.803832')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1785714285714285</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db', 'Db:7', 'Gb']]</t>
-        </is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05263731473408893</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>[['Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(22.947687, 31.49263)]</t>
+          <t>[['Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(70.32, 84.54)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.940000', '0:00:04.240000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:06.879478')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08465818759936408</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(61.683832, 65.956303)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.172360248447205</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(33.016, 39.805)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.425</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4512820512820513</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6153846153846154</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.016, 24.727)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'G#:min/B', 'C#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(95.904784, 104.577437)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.3, 10.48)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08791208791208791</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(66.98, 77.38)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07417582417582418</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.18, 12.7)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(127.6, 133.42)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(132.3, 137.48)]</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.84, 19.46), (7.56, 13.46)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38), (250.3, 252.76)]</t>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.18, 24.58)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(59.1, 69.0)]</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_93</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1217391304347826</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'F', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'C/5', 'F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.780907, 16.34517)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.050634, 27.777437)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
